--- a/Homabay_locator_form2.xlsx
+++ b/Homabay_locator_form2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FORMS\reviewed final\edited\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xlsform v0.9.18\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7700"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20496" windowHeight="7704"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="258">
   <si>
     <t>type</t>
   </si>
@@ -412,9 +412,6 @@
     <t>File number</t>
   </si>
   <si>
-    <t>Form ${Form_type} Serial No</t>
-  </si>
-  <si>
     <t>no-calendar</t>
   </si>
   <si>
@@ -710,6 +707,99 @@
   </si>
   <si>
     <t>.&gt;0</t>
+  </si>
+  <si>
+    <t>y_n</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>select_one y_n</t>
+  </si>
+  <si>
+    <t>deathcert</t>
+  </si>
+  <si>
+    <t>Is the Death certificate available?</t>
+  </si>
+  <si>
+    <t>death_reg_num</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>D1 serial number</t>
+  </si>
+  <si>
+    <t>D2/Burial Permit serial number</t>
+  </si>
+  <si>
+    <t>What is the ${Form_type}</t>
+  </si>
+  <si>
+    <t>What is the death certificate serial number?</t>
+  </si>
+  <si>
+    <t>IDNUM</t>
+  </si>
+  <si>
+    <t>National Identification/Passport Number</t>
+  </si>
+  <si>
+    <t>NATIONALITY</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>select_one ms or_ther</t>
+  </si>
+  <si>
+    <t>MARITAL_STATUS</t>
+  </si>
+  <si>
+    <t>Marital status</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Usual_res</t>
+  </si>
+  <si>
+    <t>Place of usual residence (indicate sub location/estate/town and Sub county)</t>
+  </si>
+  <si>
+    <t>edu_level</t>
+  </si>
+  <si>
+    <t>occu</t>
+  </si>
+  <si>
+    <t>Level of education</t>
+  </si>
+  <si>
+    <t>Occupation</t>
   </si>
 </sst>
 </file>
@@ -762,7 +852,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,12 +862,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -808,9 +892,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,24 +1172,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1147,7 +1229,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1157,23 +1239,23 @@
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1187,13 +1269,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -1210,577 +1292,705 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>223</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>131</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>102</v>
       </c>
       <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
-      <c r="I27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
-      <c r="I28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="H30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="H31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>83</v>
+        <v>253</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C36" s="4"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>94</v>
+        <v>63</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>96</v>
+        <v>66</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>97</v>
+        <v>68</v>
+      </c>
+      <c r="E38" t="s">
+        <v>128</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="H41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="H42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>106</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B52" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D52" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1789,21 +1999,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1817,7 +2027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -1831,7 +2041,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -1845,900 +2055,1009 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B18" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
         <v>134</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" t="s">
         <v>135</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D21" t="s">
         <v>135</v>
       </c>
-      <c r="D9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" t="s">
         <v>198</v>
       </c>
-      <c r="C10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C30" t="s">
         <v>144</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D30" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
         <v>199</v>
       </c>
-      <c r="C19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C33" t="s">
         <v>147</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D33" t="s">
         <v>147</v>
       </c>
-      <c r="D21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
         <v>200</v>
       </c>
-      <c r="C22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C37" t="s">
         <v>151</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D37" t="s">
         <v>151</v>
       </c>
-      <c r="D25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
         <v>201</v>
       </c>
-      <c r="C26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C40" t="s">
         <v>154</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D40" t="s">
         <v>154</v>
       </c>
-      <c r="D28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
         <v>202</v>
       </c>
-      <c r="C29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C45" t="s">
         <v>159</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D45" t="s">
         <v>159</v>
       </c>
-      <c r="D33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
         <v>203</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C46" t="s">
         <v>160</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D46" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" t="s">
         <v>204</v>
       </c>
-      <c r="C35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C48" t="s">
         <v>162</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D48" t="s">
         <v>162</v>
       </c>
-      <c r="D36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" t="s">
         <v>205</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C49" t="s">
         <v>163</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D49" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
         <v>206</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C50" t="s">
         <v>164</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D50" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
         <v>207</v>
       </c>
-      <c r="C39" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C52" t="s">
         <v>166</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D52" t="s">
         <v>166</v>
       </c>
-      <c r="D40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
         <v>208</v>
       </c>
-      <c r="C41" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C54" t="s">
         <v>168</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D54" t="s">
         <v>168</v>
       </c>
-      <c r="D42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" t="s">
         <v>209</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C55" t="s">
         <v>169</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D55" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
         <v>210</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C56" t="s">
         <v>170</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D56" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" t="s">
         <v>211</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C57" t="s">
         <v>171</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D57" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="s">
         <v>212</v>
       </c>
-      <c r="C46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D47" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" t="s">
-        <v>174</v>
-      </c>
-      <c r="D48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C49" t="s">
-        <v>175</v>
-      </c>
-      <c r="D49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C50" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C63" t="s">
         <v>177</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D63" t="s">
         <v>177</v>
       </c>
-      <c r="D51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
         <v>213</v>
       </c>
-      <c r="C52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" t="s">
-        <v>179</v>
-      </c>
-      <c r="D53" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C67" t="s">
         <v>181</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D67" t="s">
         <v>181</v>
       </c>
-      <c r="D55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
         <v>214</v>
       </c>
-      <c r="C56" t="s">
-        <v>182</v>
-      </c>
-      <c r="D56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" t="s">
-        <v>183</v>
-      </c>
-      <c r="D57" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C70" t="s">
         <v>184</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D70" t="s">
         <v>184</v>
       </c>
-      <c r="D58" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
         <v>215</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C71" t="s">
         <v>185</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D71" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
         <v>216</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C72" t="s">
         <v>186</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D72" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
         <v>217</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C73" t="s">
         <v>187</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D73" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
         <v>218</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C74" t="s">
         <v>188</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D74" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" t="s">
         <v>219</v>
       </c>
-      <c r="C63" t="s">
-        <v>189</v>
-      </c>
-      <c r="D63" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C76" t="s">
         <v>190</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D76" t="s">
         <v>190</v>
       </c>
-      <c r="D64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" t="s">
         <v>220</v>
       </c>
-      <c r="C65" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="C78" t="s">
         <v>192</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D78" t="s">
         <v>192</v>
       </c>
-      <c r="D66" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>134</v>
-      </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" t="s">
         <v>221</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C79" t="s">
         <v>193</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D79" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>222</v>
-      </c>
-      <c r="C68" t="s">
-        <v>194</v>
-      </c>
-      <c r="D68" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2754,14 +3073,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2778,15 +3097,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>121</v>
